--- a/Linhas_Codhorario.xlsx
+++ b/Linhas_Codhorario.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\jetta\CSC\ROMANEIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Lancamento_Romaneio_Manifesto_CC15_19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F45884-100A-4230-9997-BB20A913B622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{854551A1-35BB-4578-AF1F-627E04065FAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$642</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="843">
   <si>
     <t>Cidade Destino</t>
   </si>
@@ -2562,7 +2561,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3196,10 +3195,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52987380-6C0B-4232-A2B9-1892AACC7768}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C642"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5095,8 +5096,8 @@
       <c r="B172" t="s">
         <v>814</v>
       </c>
-      <c r="C172" t="s">
-        <v>710</v>
+      <c r="C172">
+        <v>3715</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -7630,7 +7631,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C642" xr:uid="{52987380-6C0B-4232-A2B9-1892AACC7768}"/>
+  <autoFilter ref="A1:C642"/>
   <conditionalFormatting sqref="A2">
     <cfRule type="duplicateValues" dxfId="21" priority="22"/>
   </conditionalFormatting>

--- a/Linhas_Codhorario.xlsx
+++ b/Linhas_Codhorario.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="14820" yWindow="0" windowWidth="14028" windowHeight="15588"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="1042">
   <si>
     <t>Cidade Destino</t>
   </si>
@@ -2556,6 +2556,603 @@
   </si>
   <si>
     <t>SMRCEV</t>
+  </si>
+  <si>
+    <t>SMRLAQ</t>
+  </si>
+  <si>
+    <t>SMRMTO</t>
+  </si>
+  <si>
+    <t>SMRJCU</t>
+  </si>
+  <si>
+    <t>SMRGAX</t>
+  </si>
+  <si>
+    <t>SMRNZE</t>
+  </si>
+  <si>
+    <t>SMRNCM</t>
+  </si>
+  <si>
+    <t>SMRMFL</t>
+  </si>
+  <si>
+    <t>SMRMIT</t>
+  </si>
+  <si>
+    <t>SMRSAN</t>
+  </si>
+  <si>
+    <t>SMRMHE</t>
+  </si>
+  <si>
+    <t>SMRRPR</t>
+  </si>
+  <si>
+    <t>SMRYDJ</t>
+  </si>
+  <si>
+    <t>SMRTBY</t>
+  </si>
+  <si>
+    <t>SMRDCF</t>
+  </si>
+  <si>
+    <t>SMRCEH</t>
+  </si>
+  <si>
+    <t>SMRIOM</t>
+  </si>
+  <si>
+    <t>SMRARG</t>
+  </si>
+  <si>
+    <t>SMRBFD</t>
+  </si>
+  <si>
+    <t>SMRSCK</t>
+  </si>
+  <si>
+    <t>SMRBFA</t>
+  </si>
+  <si>
+    <t>SMRMPA</t>
+  </si>
+  <si>
+    <t>SMRBJT</t>
+  </si>
+  <si>
+    <t>SMRNZB</t>
+  </si>
+  <si>
+    <t>SMRBZH</t>
+  </si>
+  <si>
+    <t>SMRNIJ</t>
+  </si>
+  <si>
+    <t>SMRSDR</t>
+  </si>
+  <si>
+    <t>SMRBKD</t>
+  </si>
+  <si>
+    <t>SMRBPV</t>
+  </si>
+  <si>
+    <t>SMRDNH</t>
+  </si>
+  <si>
+    <t>SMRAGS</t>
+  </si>
+  <si>
+    <t>SMRJEI</t>
+  </si>
+  <si>
+    <t>SMRTFM</t>
+  </si>
+  <si>
+    <t>SMRMWW</t>
+  </si>
+  <si>
+    <t>SMRBCE</t>
+  </si>
+  <si>
+    <t>SMRILW</t>
+  </si>
+  <si>
+    <t>SMRNOD</t>
+  </si>
+  <si>
+    <t>SMRPRT</t>
+  </si>
+  <si>
+    <t>SMRSMQ</t>
+  </si>
+  <si>
+    <t>SMRBVQ</t>
+  </si>
+  <si>
+    <t>SMRYHC</t>
+  </si>
+  <si>
+    <t>SMRCOB</t>
+  </si>
+  <si>
+    <t>SMRBSD</t>
+  </si>
+  <si>
+    <t>SMRTBJ</t>
+  </si>
+  <si>
+    <t>SMRGAE</t>
+  </si>
+  <si>
+    <t>SMRBPQ</t>
+  </si>
+  <si>
+    <t>SMRSER</t>
+  </si>
+  <si>
+    <t>SMRNJU</t>
+  </si>
+  <si>
+    <t>SMRJBG</t>
+  </si>
+  <si>
+    <t>SMRWNI</t>
+  </si>
+  <si>
+    <t>SMRIMP</t>
+  </si>
+  <si>
+    <t>SMRSJQ</t>
+  </si>
+  <si>
+    <t>SMRIOY</t>
+  </si>
+  <si>
+    <t>SMRAVI</t>
+  </si>
+  <si>
+    <t>SMRRIA</t>
+  </si>
+  <si>
+    <t>SMRAZB</t>
+  </si>
+  <si>
+    <t>SMRIDS</t>
+  </si>
+  <si>
+    <t>SMRESR</t>
+  </si>
+  <si>
+    <t>SMRSLP</t>
+  </si>
+  <si>
+    <t>SMRIBZ</t>
+  </si>
+  <si>
+    <t>SMRBGV</t>
+  </si>
+  <si>
+    <t>SMRCRS</t>
+  </si>
+  <si>
+    <t>SMRZZS</t>
+  </si>
+  <si>
+    <t>SMRBHR</t>
+  </si>
+  <si>
+    <t>SMRBHO</t>
+  </si>
+  <si>
+    <t>SMRJID</t>
+  </si>
+  <si>
+    <t>SMRNMN</t>
+  </si>
+  <si>
+    <t>SMRIPL</t>
+  </si>
+  <si>
+    <t>SMRNTG</t>
+  </si>
+  <si>
+    <t>SMRASU</t>
+  </si>
+  <si>
+    <t>SMRKAD</t>
+  </si>
+  <si>
+    <t>SMRCGS</t>
+  </si>
+  <si>
+    <t>SMRANE</t>
+  </si>
+  <si>
+    <t>SMRNXM</t>
+  </si>
+  <si>
+    <t>SMRMAT</t>
+  </si>
+  <si>
+    <t>SMRCAX</t>
+  </si>
+  <si>
+    <t>SMRFBS</t>
+  </si>
+  <si>
+    <t>SMRSVD</t>
+  </si>
+  <si>
+    <t>SMRASB</t>
+  </si>
+  <si>
+    <t>SMRGAA</t>
+  </si>
+  <si>
+    <t>SMRZZM</t>
+  </si>
+  <si>
+    <t>SMRZZN</t>
+  </si>
+  <si>
+    <t>SMRTVA</t>
+  </si>
+  <si>
+    <t>SMRTBF</t>
+  </si>
+  <si>
+    <t>SMRNDG</t>
+  </si>
+  <si>
+    <t>SMRMVM</t>
+  </si>
+  <si>
+    <t>SMRQQQ</t>
+  </si>
+  <si>
+    <t>SMRGEY</t>
+  </si>
+  <si>
+    <t>SMRBST</t>
+  </si>
+  <si>
+    <t>SMRILI</t>
+  </si>
+  <si>
+    <t>SMRVED</t>
+  </si>
+  <si>
+    <t>SMRTBM</t>
+  </si>
+  <si>
+    <t>SMRSBY</t>
+  </si>
+  <si>
+    <t>SMRYHQ</t>
+  </si>
+  <si>
+    <t>SMRMLS</t>
+  </si>
+  <si>
+    <t>SMRNGA</t>
+  </si>
+  <si>
+    <t>SMRLBX</t>
+  </si>
+  <si>
+    <t>SMRAZS</t>
+  </si>
+  <si>
+    <t>SMRJKU</t>
+  </si>
+  <si>
+    <t>SMRWCM</t>
+  </si>
+  <si>
+    <t>SMRNOH</t>
+  </si>
+  <si>
+    <t>SMRXXX</t>
+  </si>
+  <si>
+    <t>SMRXXM</t>
+  </si>
+  <si>
+    <t>SMRBHT</t>
+  </si>
+  <si>
+    <t>SMRBPT</t>
+  </si>
+  <si>
+    <t>SMRIBU</t>
+  </si>
+  <si>
+    <t>SMRMIB</t>
+  </si>
+  <si>
+    <t>SMRPRG</t>
+  </si>
+  <si>
+    <t>SMRSSD</t>
+  </si>
+  <si>
+    <t>SMRSZK</t>
+  </si>
+  <si>
+    <t>SMRVDU</t>
+  </si>
+  <si>
+    <t>SMRBUE</t>
+  </si>
+  <si>
+    <t>SMRBVD</t>
+  </si>
+  <si>
+    <t>SMRIFR</t>
+  </si>
+  <si>
+    <t>SMRMUF</t>
+  </si>
+  <si>
+    <t>SMRECS</t>
+  </si>
+  <si>
+    <t>SMRRST</t>
+  </si>
+  <si>
+    <t>SMRNPM</t>
+  </si>
+  <si>
+    <t>SMRTBL</t>
+  </si>
+  <si>
+    <t>SMRBCC</t>
+  </si>
+  <si>
+    <t>SMRILV</t>
+  </si>
+  <si>
+    <t>SMRSSN</t>
+  </si>
+  <si>
+    <t>SMRIFD</t>
+  </si>
+  <si>
+    <t>SMREAN</t>
+  </si>
+  <si>
+    <t>SMRYEE</t>
+  </si>
+  <si>
+    <t>SMRCFC</t>
+  </si>
+  <si>
+    <t>SMRDND</t>
+  </si>
+  <si>
+    <t>SMRNAL</t>
+  </si>
+  <si>
+    <t>SMRINP</t>
+  </si>
+  <si>
+    <t>SMRBJQ</t>
+  </si>
+  <si>
+    <t>SMRNPV</t>
+  </si>
+  <si>
+    <t>SMRNHS</t>
+  </si>
+  <si>
+    <t>SMRFEL</t>
+  </si>
+  <si>
+    <t>SMRGFD</t>
+  </si>
+  <si>
+    <t>SMRRBR</t>
+  </si>
+  <si>
+    <t>SMRCSJ</t>
+  </si>
+  <si>
+    <t>SMRIFM</t>
+  </si>
+  <si>
+    <t>SMRCLA</t>
+  </si>
+  <si>
+    <t>SMRMGJ</t>
+  </si>
+  <si>
+    <t>SMRYEU</t>
+  </si>
+  <si>
+    <t>SMRNCP</t>
+  </si>
+  <si>
+    <t>SMRMSV</t>
+  </si>
+  <si>
+    <t>SMRCTF</t>
+  </si>
+  <si>
+    <t>SMRLAK</t>
+  </si>
+  <si>
+    <t>SMRTDJ</t>
+  </si>
+  <si>
+    <t>SMRZZI</t>
+  </si>
+  <si>
+    <t>SMRFBU</t>
+  </si>
+  <si>
+    <t>SMRCPH</t>
+  </si>
+  <si>
+    <t>SMRIIR</t>
+  </si>
+  <si>
+    <t>SMRMSH</t>
+  </si>
+  <si>
+    <t>SMRSKB</t>
+  </si>
+  <si>
+    <t>SMRIVR</t>
+  </si>
+  <si>
+    <t>SMRWDX</t>
+  </si>
+  <si>
+    <t>SMRYHA</t>
+  </si>
+  <si>
+    <t>SMRUAM</t>
+  </si>
+  <si>
+    <t>SMRJBZ</t>
+  </si>
+  <si>
+    <t>SMRLCE</t>
+  </si>
+  <si>
+    <t>SMRPIR</t>
+  </si>
+  <si>
+    <t>SMRPRV</t>
+  </si>
+  <si>
+    <t>SMRYHO</t>
+  </si>
+  <si>
+    <t>SMRCRI</t>
+  </si>
+  <si>
+    <t>SMRAAL</t>
+  </si>
+  <si>
+    <t>SMRIDB</t>
+  </si>
+  <si>
+    <t>SMRTCI</t>
+  </si>
+  <si>
+    <t>SMRRNS</t>
+  </si>
+  <si>
+    <t>SMRJBD</t>
+  </si>
+  <si>
+    <t>SMRQUL</t>
+  </si>
+  <si>
+    <t>SMRMOH</t>
+  </si>
+  <si>
+    <t>SMRGAC</t>
+  </si>
+  <si>
+    <t>SMRUAS</t>
+  </si>
+  <si>
+    <t>SMREAR</t>
+  </si>
+  <si>
+    <t>SMRIPW</t>
+  </si>
+  <si>
+    <t>SMRBGU</t>
+  </si>
+  <si>
+    <t>SMRBZD</t>
+  </si>
+  <si>
+    <t>SMRNTC</t>
+  </si>
+  <si>
+    <t>SMRUCO</t>
+  </si>
+  <si>
+    <t>SMRBXZ</t>
+  </si>
+  <si>
+    <t>SMRCGA</t>
+  </si>
+  <si>
+    <t>SMRIHU</t>
+  </si>
+  <si>
+    <t>SMRFAJ</t>
+  </si>
+  <si>
+    <t>SMRSZN</t>
+  </si>
+  <si>
+    <t>SMRTEC</t>
+  </si>
+  <si>
+    <t>SMRRXC</t>
+  </si>
+  <si>
+    <t>SMRBDE</t>
+  </si>
+  <si>
+    <t>SMRGAN</t>
+  </si>
+  <si>
+    <t>SMRGUR</t>
+  </si>
+  <si>
+    <t>SMRATE</t>
+  </si>
+  <si>
+    <t>SMRUBX</t>
+  </si>
+  <si>
+    <t>SMRIOH</t>
+  </si>
+  <si>
+    <t>SMRAZH</t>
+  </si>
+  <si>
+    <t>SMRIJM</t>
+  </si>
+  <si>
+    <t>SMRUAP</t>
+  </si>
+  <si>
+    <t>SMRBTL</t>
+  </si>
+  <si>
+    <t>SMREAG</t>
+  </si>
+  <si>
+    <t>SMRRIN</t>
+  </si>
+  <si>
+    <t>SMRAVH</t>
+  </si>
+  <si>
+    <t>SMRJFJ</t>
+  </si>
+  <si>
+    <t>SMRBAX</t>
+  </si>
+  <si>
+    <t>SMRMRL</t>
+  </si>
+  <si>
+    <t>SMRAUC</t>
   </si>
 </sst>
 </file>
@@ -2643,7 +3240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2660,12 +3257,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3199,16 +3807,16 @@
   <dimension ref="A1:C642"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172"/>
+      <selection activeCell="C643" sqref="C643"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3219,7 +3827,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3230,7 +3838,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3241,7 +3849,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -3252,7 +3860,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3263,7 +3871,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3274,7 +3882,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -3285,7 +3893,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -3296,7 +3904,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -3307,7 +3915,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -3318,7 +3926,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3329,7 +3937,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -3340,7 +3948,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -3351,7 +3959,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -3362,7 +3970,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -3373,7 +3981,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -3384,7 +3992,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -3395,7 +4003,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -3406,7 +4014,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -3417,7 +4025,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -3428,7 +4036,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -3439,7 +4047,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -3450,7 +4058,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -3461,7 +4069,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -3472,7 +4080,7 @@
         <v>3083</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -3483,7 +4091,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -3494,7 +4102,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -3505,7 +4113,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -3516,7 +4124,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -3527,7 +4135,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -3538,7 +4146,7 @@
         <v>2909</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -3549,7 +4157,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -3560,7 +4168,7 @@
         <v>2945</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -3571,7 +4179,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -3582,7 +4190,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3593,7 +4201,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -3604,7 +4212,7 @@
         <v>3074</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
@@ -3615,7 +4223,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -3626,7 +4234,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
@@ -3637,7 +4245,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -3648,7 +4256,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -3659,7 +4267,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -3670,7 +4278,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
@@ -3681,7 +4289,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -3692,7 +4300,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -3703,7 +4311,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -3714,7 +4322,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -3725,7 +4333,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -3736,7 +4344,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
@@ -3747,7 +4355,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
@@ -3758,7 +4366,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -3769,7 +4377,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
@@ -3780,7 +4388,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
@@ -3791,7 +4399,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -3802,7 +4410,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -3813,7 +4421,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
@@ -3824,7 +4432,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
@@ -3835,7 +4443,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
@@ -3846,7 +4454,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
@@ -3857,7 +4465,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
@@ -3868,7 +4476,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
@@ -3879,7 +4487,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
@@ -3890,7 +4498,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -3901,7 +4509,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>63</v>
       </c>
@@ -3912,7 +4520,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
@@ -3923,7 +4531,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
@@ -3934,18 +4542,15 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>709</v>
       </c>
-      <c r="C67" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
@@ -3956,7 +4561,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>68</v>
       </c>
@@ -3967,7 +4572,7 @@
         <v>3244</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
@@ -3978,7 +4583,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
@@ -3989,18 +4594,15 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>715</v>
       </c>
-      <c r="C72" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
@@ -4011,7 +4613,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
@@ -4022,7 +4624,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>74</v>
       </c>
@@ -4033,18 +4635,15 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>719</v>
       </c>
-      <c r="C76" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
@@ -4055,7 +4654,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
@@ -4066,7 +4665,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>78</v>
       </c>
@@ -4077,7 +4676,7 @@
         <v>3148</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
@@ -4088,7 +4687,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>80</v>
       </c>
@@ -4099,7 +4698,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>81</v>
       </c>
@@ -4110,7 +4709,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
@@ -4121,7 +4720,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
@@ -4132,7 +4731,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>84</v>
       </c>
@@ -4143,7 +4742,7 @@
         <v>3003</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
@@ -4154,7 +4753,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
@@ -4165,18 +4764,15 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>731</v>
       </c>
-      <c r="C88" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
@@ -4187,7 +4783,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>89</v>
       </c>
@@ -4198,7 +4794,7 @@
         <v>3012</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
@@ -4209,7 +4805,7 @@
         <v>2874</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>91</v>
       </c>
@@ -4220,7 +4816,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>92</v>
       </c>
@@ -4231,7 +4827,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
@@ -4242,7 +4838,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -4253,7 +4849,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -4264,7 +4860,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>96</v>
       </c>
@@ -4275,7 +4871,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
@@ -4286,7 +4882,7 @@
         <v>3246</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
@@ -4297,7 +4893,7 @@
         <v>3534</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
@@ -4308,7 +4904,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
@@ -4319,18 +4915,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>745</v>
       </c>
-      <c r="C102" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
@@ -4341,18 +4934,15 @@
         <v>3042</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>747</v>
       </c>
-      <c r="C104" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>104</v>
       </c>
@@ -4363,7 +4953,7 @@
         <v>3163</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
@@ -4374,7 +4964,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
@@ -4385,7 +4975,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
@@ -4396,18 +4986,15 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>752</v>
       </c>
-      <c r="C109" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
@@ -4418,7 +5005,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>110</v>
       </c>
@@ -4429,7 +5016,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>111</v>
       </c>
@@ -4440,7 +5027,7 @@
         <v>3184</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
@@ -4451,7 +5038,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
@@ -4462,7 +5049,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
@@ -4473,7 +5060,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
@@ -4484,18 +5071,15 @@
         <v>2691</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>760</v>
       </c>
-      <c r="C117" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
@@ -4506,7 +5090,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>118</v>
       </c>
@@ -4517,18 +5101,15 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>763</v>
       </c>
-      <c r="C120" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>120</v>
       </c>
@@ -4539,18 +5120,15 @@
         <v>2994</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>765</v>
       </c>
-      <c r="C122" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
@@ -4561,7 +5139,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
@@ -4572,29 +5150,23 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>768</v>
       </c>
-      <c r="C125" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>769</v>
       </c>
-      <c r="C126" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
@@ -4605,7 +5177,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>127</v>
       </c>
@@ -4616,7 +5188,7 @@
         <v>2731</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
@@ -4627,7 +5199,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>129</v>
       </c>
@@ -4638,7 +5210,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
@@ -4649,7 +5221,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>131</v>
       </c>
@@ -4660,7 +5232,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>132</v>
       </c>
@@ -4671,7 +5243,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>133</v>
       </c>
@@ -4682,7 +5254,7 @@
         <v>3053</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>134</v>
       </c>
@@ -4693,18 +5265,15 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>710</v>
       </c>
-      <c r="C136" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>136</v>
       </c>
@@ -4715,7 +5284,7 @@
         <v>2991</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
@@ -4726,40 +5295,31 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>781</v>
       </c>
-      <c r="C139" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B140" t="s">
         <v>782</v>
       </c>
-      <c r="C140" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>783</v>
       </c>
-      <c r="C141" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>141</v>
       </c>
@@ -4770,7 +5330,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>142</v>
       </c>
@@ -4781,7 +5341,7 @@
         <v>3002</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>143</v>
       </c>
@@ -4792,29 +5352,23 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>787</v>
       </c>
-      <c r="C145" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>788</v>
       </c>
-      <c r="C146" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>146</v>
       </c>
@@ -4825,7 +5379,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>147</v>
       </c>
@@ -4836,18 +5390,15 @@
         <v>3013</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B149" t="s">
         <v>791</v>
       </c>
-      <c r="C149" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
@@ -4858,7 +5409,7 @@
         <v>3130</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>150</v>
       </c>
@@ -4869,18 +5420,15 @@
         <v>363</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B152" t="s">
         <v>794</v>
       </c>
-      <c r="C152" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>152</v>
       </c>
@@ -4891,7 +5439,7 @@
         <v>3045</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>153</v>
       </c>
@@ -4902,7 +5450,7 @@
         <v>3243</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>154</v>
       </c>
@@ -4913,7 +5461,7 @@
         <v>3253</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>155</v>
       </c>
@@ -4924,29 +5472,23 @@
         <v>3221</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B157" t="s">
         <v>799</v>
       </c>
-      <c r="C157" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B158" t="s">
         <v>800</v>
       </c>
-      <c r="C158" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>158</v>
       </c>
@@ -4957,18 +5499,15 @@
         <v>3145</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B160" t="s">
         <v>802</v>
       </c>
-      <c r="C160" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>160</v>
       </c>
@@ -4979,7 +5518,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>161</v>
       </c>
@@ -4990,7 +5529,7 @@
         <v>3245</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>162</v>
       </c>
@@ -5001,7 +5540,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>163</v>
       </c>
@@ -5012,18 +5551,15 @@
         <v>3555</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B165" t="s">
         <v>807</v>
       </c>
-      <c r="C165" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>165</v>
       </c>
@@ -5034,7 +5570,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>166</v>
       </c>
@@ -5045,7 +5581,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>167</v>
       </c>
@@ -5056,7 +5592,7 @@
         <v>3137</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
@@ -5067,7 +5603,7 @@
         <v>3686</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
@@ -5078,7 +5614,7 @@
         <v>3684</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>170</v>
       </c>
@@ -5089,7 +5625,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>171</v>
       </c>
@@ -5100,29 +5636,23 @@
         <v>3715</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>172</v>
       </c>
       <c r="B173" t="s">
         <v>710</v>
       </c>
-      <c r="C173" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B174" t="s">
         <v>815</v>
       </c>
-      <c r="C174" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>174</v>
       </c>
@@ -5133,18 +5663,15 @@
         <v>3521</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B176" t="s">
         <v>817</v>
       </c>
-      <c r="C176" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>176</v>
       </c>
@@ -5155,7 +5682,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
         <v>177</v>
       </c>
@@ -5166,7 +5693,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
@@ -5177,18 +5704,15 @@
         <v>2772</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B180" t="s">
         <v>821</v>
       </c>
-      <c r="C180" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>180</v>
       </c>
@@ -5199,7 +5723,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>181</v>
       </c>
@@ -5210,7 +5734,7 @@
         <v>3115</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>182</v>
       </c>
@@ -5221,7 +5745,7 @@
         <v>3595</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>183</v>
       </c>
@@ -5232,40 +5756,31 @@
         <v>3328</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B185" t="s">
         <v>710</v>
       </c>
-      <c r="C185" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>185</v>
       </c>
       <c r="B186" t="s">
         <v>826</v>
       </c>
-      <c r="C186" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>186</v>
       </c>
       <c r="B187" t="s">
         <v>827</v>
       </c>
-      <c r="C187" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>187</v>
       </c>
@@ -5276,40 +5791,31 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B189" t="s">
         <v>829</v>
       </c>
-      <c r="C189" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B190" t="s">
         <v>830</v>
       </c>
-      <c r="C190" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B191" t="s">
         <v>831</v>
       </c>
-      <c r="C191" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
         <v>191</v>
       </c>
@@ -5320,29 +5826,23 @@
         <v>3162</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>192</v>
       </c>
       <c r="B193" t="s">
         <v>833</v>
       </c>
-      <c r="C193" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>193</v>
       </c>
       <c r="B194" t="s">
         <v>834</v>
       </c>
-      <c r="C194" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>194</v>
       </c>
@@ -5353,18 +5853,15 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>195</v>
       </c>
       <c r="B196" t="s">
         <v>836</v>
       </c>
-      <c r="C196" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>196</v>
       </c>
@@ -5375,7 +5872,7 @@
         <v>3103</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>197</v>
       </c>
@@ -5386,579 +5883,1047 @@
         <v>3539</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B199" t="s">
         <v>839</v>
       </c>
-      <c r="C199" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
       <c r="B200" t="s">
         <v>840</v>
       </c>
-      <c r="C200" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>843</v>
+      </c>
+      <c r="C201">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>844</v>
+      </c>
+      <c r="C202">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>853</v>
+      </c>
+      <c r="C211">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>854</v>
+      </c>
+      <c r="C212">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
+        <v>855</v>
+      </c>
+      <c r="C213">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>859</v>
+      </c>
+      <c r="C217">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>860</v>
+      </c>
+      <c r="C218">
+        <v>3656</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>862</v>
+      </c>
+      <c r="C220">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>865</v>
+      </c>
+      <c r="C223">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>866</v>
+      </c>
+      <c r="C224">
+        <v>3706</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>867</v>
+      </c>
+      <c r="C225">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
+        <v>869</v>
+      </c>
+      <c r="C227">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>872</v>
+      </c>
+      <c r="C231">
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>873</v>
+      </c>
+      <c r="C232">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>876</v>
+      </c>
+      <c r="C235">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>879</v>
+      </c>
+      <c r="C238">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>881</v>
+      </c>
+      <c r="C240">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>882</v>
+      </c>
+      <c r="C241">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>883</v>
+      </c>
+      <c r="C242">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>884</v>
+      </c>
+      <c r="C243">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>885</v>
+      </c>
+      <c r="C244">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>886</v>
+      </c>
+      <c r="C245">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>888</v>
+      </c>
+      <c r="C247">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>890</v>
+      </c>
+      <c r="C249">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B256" t="s">
+        <v>897</v>
+      </c>
+      <c r="C256">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
+        <v>898</v>
+      </c>
+      <c r="C257">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>902</v>
+      </c>
+      <c r="C261">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B262" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
+        <v>905</v>
+      </c>
+      <c r="C264">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
+        <v>906</v>
+      </c>
+      <c r="C265">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
+        <v>909</v>
+      </c>
+      <c r="C268">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
+        <v>910</v>
+      </c>
+      <c r="C269">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>914</v>
+      </c>
+      <c r="C273">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
+        <v>916</v>
+      </c>
+      <c r="C275">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>923</v>
+      </c>
+      <c r="C282">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
+        <v>926</v>
+      </c>
+      <c r="C285">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
+        <v>927</v>
+      </c>
+      <c r="C286">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
+        <v>928</v>
+      </c>
+      <c r="C287">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>929</v>
+      </c>
+      <c r="C288">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>930</v>
+      </c>
+      <c r="C289">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
+        <v>931</v>
+      </c>
+      <c r="C290">
+        <v>3522</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B293" t="s">
+        <v>934</v>
+      </c>
+      <c r="C293">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B295" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B297" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B298" t="s">
+        <v>939</v>
+      </c>
+      <c r="C298">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B300" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B301" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
+        <v>943</v>
+      </c>
+      <c r="C302">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>945</v>
+      </c>
+      <c r="C304">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
+        <v>946</v>
+      </c>
+      <c r="C305">
+        <v>3538</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B306" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B307" t="s">
+        <v>948</v>
+      </c>
+      <c r="C307">
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B308" t="s">
+        <v>949</v>
+      </c>
+      <c r="C308">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B309" s="6" t="s">
+        <v>950</v>
+      </c>
+      <c r="C309">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B310" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
         <v>310</v>
       </c>
@@ -5969,1527 +6934,1887 @@
         <v>2766</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B312" t="s">
+        <v>952</v>
+      </c>
+      <c r="C312">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B313" t="s">
+        <v>953</v>
+      </c>
+      <c r="C313">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B314" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B315" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B316" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B317" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B318" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B319" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B320" t="s">
+        <v>960</v>
+      </c>
+      <c r="C320">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B321" t="s">
+        <v>961</v>
+      </c>
+      <c r="C321">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B322" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="4" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B323" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B324" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="4" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B325" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B326" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B327" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="3" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B328" t="s">
+        <v>968</v>
+      </c>
+      <c r="C328">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="4" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B329" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B330" t="s">
+        <v>970</v>
+      </c>
+      <c r="C330">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B331" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B332" t="s">
+        <v>972</v>
+      </c>
+      <c r="C332">
+        <v>3661</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B333" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="4" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B334" t="s">
+        <v>974</v>
+      </c>
+      <c r="C334">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="4" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B335" t="s">
+        <v>975</v>
+      </c>
+      <c r="C335">
+        <v>3669</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B336" t="s">
+        <v>976</v>
+      </c>
+      <c r="C336">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B337" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B338" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="4" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B339" t="s">
+        <v>979</v>
+      </c>
+      <c r="C339">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="4" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B340" t="s">
+        <v>980</v>
+      </c>
+      <c r="C340">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B341" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="4" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B342" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="4" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B343" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B344" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B345" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="4" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B346" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B348" t="s">
+        <v>987</v>
+      </c>
+      <c r="C348">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="4" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B349" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B350" t="s">
+        <v>989</v>
+      </c>
+      <c r="C350">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="4" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B351" t="s">
+        <v>990</v>
+      </c>
+      <c r="C351">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="4" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B352" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B353" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="4" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B354" t="s">
+        <v>993</v>
+      </c>
+      <c r="C354">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="4" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B355" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="4" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B356" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B357" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B358" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B359" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B360" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B361" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B362" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C362">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="4" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B363" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C363">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="4" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B364" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="4" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B365" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="4" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B366" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="4" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B367" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B368" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B369" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="3" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B370" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="4" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B371" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="4" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B372" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="4" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B373" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="4" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B374" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="4" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B375" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C375">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="4" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B376" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="4" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B377" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="4" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B378" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B379" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="4" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B380" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="4" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B381" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="3" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B382" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B383" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="3" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B384" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C384">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B385" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C385">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B386" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="4" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B387" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B388" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C388">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="4" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B389" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="3" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B390" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C390">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="4" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B391" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B392" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C392">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B393" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="4" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B394" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" s="4" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B395" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C395">
+        <v>3699</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B396" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B397" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="3" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B398" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C398">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="4" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B399" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" s="4" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B400" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A401" s="4" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A402" s="3" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A403" s="4" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A404" s="4" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A406" s="4" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A407" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A408" s="4" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A409" s="4" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A410" s="4" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A411" s="4" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A412" s="4" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A413" s="3" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A414" s="4" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A416" s="3" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A417" s="4" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A418" s="4" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A420" s="3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A421" s="4" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A422" s="4" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A424" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A426" s="4" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A427" s="4" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A428" s="4" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A429" s="3" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A430" s="3" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A431" s="4" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A432" s="4" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" s="4" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="4" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="4" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" s="3" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" s="4" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" s="3" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" s="4" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" s="4" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" s="4" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" s="4" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" s="4" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B443" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C443">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" s="4" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" s="4" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" s="4" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" s="4" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" s="4" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A449" s="4" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A450" s="4" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A451" s="4" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A452" s="4" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A453" s="4" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A454" s="4" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A455" s="4" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A456" s="4" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A457" s="4" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A458" s="3" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A459" s="4" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A460" s="4" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A461" s="4" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A462" s="4" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A463" s="4" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A464" s="4" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" s="4" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" s="4" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" s="4" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" s="4" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" s="4" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" s="4" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" s="4" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" s="4" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" s="4" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B473" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C473">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" s="4" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" s="4" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" s="3" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" s="4" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" s="4" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" s="3" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" s="4" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A481" s="4" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A482" s="4" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A483" s="4" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A484" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A485" s="4" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A486" s="4" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A487" s="4" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A488" s="4" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A489" s="4" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A490" s="4" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A491" s="4" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A492" s="4" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A493" s="4" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A494" s="4" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A495" s="4" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A496" s="4" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A497" s="4" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A498" s="4" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A499" s="3" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A500" s="4" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A501" s="4" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A502" s="4" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A503" s="4" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A504" s="4" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A505" s="4" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A506" s="4" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A507" s="4" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A508" s="4" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A509" s="4" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A510" s="4" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A511" s="4" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A512" s="4" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" s="4" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" s="4" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" s="4" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" s="4" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B516" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C516">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" s="4" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" s="4" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" s="4" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" s="4" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521" s="4" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522" s="4" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523" s="4" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524" s="4" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525" s="4" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526" s="4" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527" s="4" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" s="4" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A529" s="4" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A530" s="4" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A531" s="4" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A532" s="4" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A533" s="4" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A534" s="4" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A535" s="4" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A536" s="4" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A537" s="4" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A538" s="4" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A539" s="4" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A540" s="4" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A541" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A542" s="4" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A543" s="4" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A544" s="4" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A545" s="4" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A546" s="4" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A547" s="4" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A548" s="4" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A549" s="4" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A550" s="4" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A551" s="4" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A552" s="4" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A553" s="4" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A554" s="4" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A555" s="4" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A556" s="4" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A557" s="4" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A558" s="4" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A559" s="4" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A560" s="4" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A561" s="4" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A562" s="4" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A563" s="4" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A564" s="4" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A565" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A566" s="4" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A567" s="4" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A568" s="4" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A569" s="4" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A570" s="4" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A571" s="4" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A572" s="4" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A573" s="4" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A574" s="4" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A575" s="4" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A576" s="4" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A577" s="4" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A578" s="4" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A579" s="4" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A580" s="4" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A581" s="4" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A582" s="4" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A583" s="4" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A584" s="4" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A585" s="4" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A586" s="4" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A587" s="4" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A588" s="4" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A589" s="4" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A590" s="4" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A591" s="4" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A592" s="4" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A593" s="4" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A594" s="4" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A595" s="4" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A596" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A597" s="4" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A598" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A599" s="4" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A600" s="4" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A601" s="4" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A602" s="4" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A603" s="4" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A604" s="4" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A605" s="4" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A606" s="4" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A607" s="4" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A608" s="4" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" s="4" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" s="4" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" s="4" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" s="4" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" s="4" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" s="4" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" s="4" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" s="4" t="s">
         <v>615</v>
       </c>
@@ -7500,132 +8825,132 @@
         <v>2747</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" s="4" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" s="4" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" s="4" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" s="4" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" s="4" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" s="4" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" s="4" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" s="4" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A625" s="4" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A626" s="4" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A627" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A628" s="4" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A629" s="4" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A630" s="4" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A631" s="4" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A632" s="4" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A633" s="4" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A634" s="4" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A635" s="4" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A636" s="4" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A637" s="4" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A638" s="4" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A639" s="4" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A640" s="3" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A641" s="3" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A642" s="5" t="s">
         <v>641</v>
       </c>
@@ -7633,67 +8958,70 @@
   </sheetData>
   <autoFilter ref="A1:C642"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A23">
-    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A17">
-    <cfRule type="duplicateValues" dxfId="19" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A25">
-    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A73">
-    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:A40">
-    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:A119">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:A99">
-    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120:A179">
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121:A124">
-    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A180:A184">
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A180:A220">
     <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A180:A220">
+  <conditionalFormatting sqref="A221:A232">
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A221:A232">
+  <conditionalFormatting sqref="A221:A263">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A221:A263">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A264:A314">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277:A281">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A315:A375">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A335:A342">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A376:A524">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A525:A625">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A626:A638">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A626:A638">
+  <conditionalFormatting sqref="B309">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
